--- a/biology/Médecine/Test_de_stimulation_à_l’ACTH/Test_de_stimulation_à_l’ACTH.xlsx
+++ b/biology/Médecine/Test_de_stimulation_à_l’ACTH/Test_de_stimulation_à_l’ACTH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
+          <t>Test_de_stimulation_à_l’ACTH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test de stimulation à l’ACTH (aussi appelé le test au Synacthène) est un test médical utilisé afin d’évaluer le fonctionnement des glandes surrénales. Il est employé spécifiquement pour diagnostiquer ou exclure une insuffisance surrénalienne (la maladie d'Addison et les affections liées). Il implique une injection d'hormone adrénocorticotropique synthétique (hormone corticotrope ou ACTH) et mesure la quantité de cortisol que les glandes surrénales sécrètent dans la circulation sanguine en réponse. Non seulement il peut déceler l'insuffisance surrénalienne mais il peut également permettre d'en distinguer les causes diverses[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test de stimulation à l’ACTH (aussi appelé le test au Synacthène) est un test médical utilisé afin d’évaluer le fonctionnement des glandes surrénales. Il est employé spécifiquement pour diagnostiquer ou exclure une insuffisance surrénalienne (la maladie d'Addison et les affections liées). Il implique une injection d'hormone adrénocorticotropique synthétique (hormone corticotrope ou ACTH) et mesure la quantité de cortisol que les glandes surrénales sécrètent dans la circulation sanguine en réponse. Non seulement il peut déceler l'insuffisance surrénalienne mais il peut également permettre d'en distinguer les causes diverses.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
+          <t>Test_de_stimulation_à_l’ACTH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le test de stimulation à l’ACTH (appelé aussi « test au Synacthène ») mesure la réponse des glandes surrénales ou le manque de réponse au stress en testant la quantité de cortisol (et éventuellement de 17hydroxyprogestérone (17OHP) et d'aldostérone) que celle-ci produisent après avoir été stimulées par un analogue synthétique de l’ACTH appelé le tétracosactide et qui est formé de ses 24 premiers acides aminés. Une prise de sang est réalisée avant le test pour déterminer le niveau de base de cortisol (et éventuellement la concentration d'ACTH, de 17hydroxyprogestérone (17OHP) et d'aldostérone sérique de base). Après administration par injection d'ACTH synthétique ou Synacthène, le sang est prélevé à 30 minutes, parfois 45 minutes, et à 60 minutes. Avec une fonction surrénale saine, la concentration de cortisol doit doubler (passant d'environ 25 à 50 µg/dl) dans ce même délai. La plupart des patients ne ressentent rien pendant et après le test, mais des rougeurs, de l’anxiété et des nausées sont possibles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test de stimulation à l’ACTH (appelé aussi « test au Synacthène ») mesure la réponse des glandes surrénales ou le manque de réponse au stress en testant la quantité de cortisol (et éventuellement de 17hydroxyprogestérone (17OHP) et d'aldostérone) que celle-ci produisent après avoir été stimulées par un analogue synthétique de l’ACTH appelé le tétracosactide et qui est formé de ses 24 premiers acides aminés. Une prise de sang est réalisée avant le test pour déterminer le niveau de base de cortisol (et éventuellement la concentration d'ACTH, de 17hydroxyprogestérone (17OHP) et d'aldostérone sérique de base). Après administration par injection d'ACTH synthétique ou Synacthène, le sang est prélevé à 30 minutes, parfois 45 minutes, et à 60 minutes. Avec une fonction surrénale saine, la concentration de cortisol doit doubler (passant d'environ 25 à 50 µg/dl) dans ce même délai. La plupart des patients ne ressentent rien pendant et après le test, mais des rougeurs, de l’anxiété et des nausées sont possibles.
 Remarque : si le patient est sous corticothérapie, il convient de stopper les corticoïdes au moins 48 h avant l'injection.
-Protocole type
-Dose injectée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test_de_stimulation_à_l’ACTH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Méthode</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Protocole type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dose injectée
 Adulte : 0,25 mg de Synacthène (une ampoule).
 Enfant : 0,25 mg/m2 de surface corporelle (sans dépasser 0,25 mg).
 Conditions de prélèvement
@@ -527,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test_de_stimulation_à_l’ACTH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les individus en bonne santé, le niveau de Cortisol de base (T0) est supérieur à 30 ng/dl (il peut être beaucoup plus élevé en cas d'épisode de « stress » (infection récente, opération chirurgicale, traumatisme)). Celui-ci doit au moins doubler à 60 minutes.
 Avec l'insuffisance surrénalienne primaire (défaut de synthèse de cortisol par les surrénales), le niveau de base de cortisol est habituellement bas (&lt;20 ng/dl). Si l'essai de stimulation par l'ACTH ne permet pas de doubler le niveau de cortisol cela peut être en faveur d'une insuffisance surrénalienne primaire.
@@ -563,46 +614,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Méthode et interprétation du test de stimulation pour l’aldostérone</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test de stimulation à l'ACTH est occasionnellement utilisé pour stimuler la production de l’aldostérone en même temps que le cortisol afin d’aider à déterminer s’il s’agit d’hypoaldostéronisme primaire (hyperreninemic) ou secondaire (hyporeninemic) présente avec l’insuffisance surrénalienne. L'ACTH naturel humain a un faible effet sur l’aldostérone[2], mais la quantité d'ACTH synthétique donnée dans la stimulation est équivalente à plus d’une journée entière de production d’ACTH, ainsi la réponse d'aldostérone peut être facilement mesurée. Comme le cortisol, l’aldostérone devrait doubler en partant d’une valeur de base suffisante (autour de 20 ng/dl, il est nécessaire d’éviter le sel pendant 24 heures et de se tenir droit pendant la prise de sang).
-Dans l'insuffisance surrénalienne primaire, la valeur de base de l'aldostérone sera plus basse (la dizaine ou moins) et augmentera jusqu’à moins de la moitié de la valeur de base. Si l'aldostérone double ou plus depuis une valeur initiale basse, cela suggère que l’hypoaldostéronisme secondaire ainsi que la stimulation de cortisol peut aider à supporter le diagnostic d’insuffisance surrénalienne secondaire.
-Dans l’hypoaldostéronisme secondaire, la production d'aldostérone peut augmenter depuis une valeur initiale basse due à plusieurs facteurs. Le décuplement d'aldostérone dans le test de stimulation à l'ACTH est possible(ex. : 2 ng/dl porté à 20)[3]. Comme la stimulation de cortisol, beaucoup de médecins manquent de connaissance pour interpréter correctement l’hypoaldostéronisme secondaire et pensent que ce résultat est optimal. Le doublement ou quadruplement d'une valeur initiale basse d'aldostérone est ce qui est habituellement constaté dans les cas d'insuffisance surrénalienne secondaire.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
+          <t>Test_de_stimulation_à_l’ACTH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +635,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Méthode et interprétation du test de stimulation pour l’aldostérone</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test de stimulation à l'ACTH est occasionnellement utilisé pour stimuler la production de l’aldostérone en même temps que le cortisol afin d’aider à déterminer s’il s’agit d’hypoaldostéronisme primaire (hyperreninemic) ou secondaire (hyporeninemic) présente avec l’insuffisance surrénalienne. L'ACTH naturel humain a un faible effet sur l’aldostérone, mais la quantité d'ACTH synthétique donnée dans la stimulation est équivalente à plus d’une journée entière de production d’ACTH, ainsi la réponse d'aldostérone peut être facilement mesurée. Comme le cortisol, l’aldostérone devrait doubler en partant d’une valeur de base suffisante (autour de 20 ng/dl, il est nécessaire d’éviter le sel pendant 24 heures et de se tenir droit pendant la prise de sang).
+Dans l'insuffisance surrénalienne primaire, la valeur de base de l'aldostérone sera plus basse (la dizaine ou moins) et augmentera jusqu’à moins de la moitié de la valeur de base. Si l'aldostérone double ou plus depuis une valeur initiale basse, cela suggère que l’hypoaldostéronisme secondaire ainsi que la stimulation de cortisol peut aider à supporter le diagnostic d’insuffisance surrénalienne secondaire.
+Dans l’hypoaldostéronisme secondaire, la production d'aldostérone peut augmenter depuis une valeur initiale basse due à plusieurs facteurs. Le décuplement d'aldostérone dans le test de stimulation à l'ACTH est possible(ex. : 2 ng/dl porté à 20). Comme la stimulation de cortisol, beaucoup de médecins manquent de connaissance pour interpréter correctement l’hypoaldostéronisme secondaire et pensent que ce résultat est optimal. Le doublement ou quadruplement d'une valeur initiale basse d'aldostérone est ce qui est habituellement constaté dans les cas d'insuffisance surrénalienne secondaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test_de_stimulation_à_l’ACTH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_de_stimulation_%C3%A0_l%E2%80%99ACTH</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Tableau de diagnostic simplifié</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
